--- a/curso-completo/excel_365_do_zero_ao_avancado/5.basico_formatacao_de_tabela_e_analise_de_dados/110.atividade_final_capitulo/86+-+Atividade+Final+Capítulo.xlsx
+++ b/curso-completo/excel_365_do_zero_ao_avancado/5.basico_formatacao_de_tabela_e_analise_de_dados/110.atividade_final_capitulo/86+-+Atividade+Final+Capítulo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25310"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aula\Desktop\Curso de Excel\Capítulo 04\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\excel-nivel-especialista\curso-completo\excel_365_do_zero_ao_avancado\5.basico_formatacao_de_tabela_e_analise_de_dados\110.atividade_final_capitulo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC9D4473-D4DE-4903-9C0B-665B2D26E572}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7F57416-468E-4366-8EFE-BCF9A7DE33A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{851E89D6-2654-4F34-8E0C-E870017DE456}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="3" activeTab="7" xr2:uid="{851E89D6-2654-4F34-8E0C-E870017DE456}"/>
   </bookViews>
   <sheets>
     <sheet name="Atividade 01" sheetId="19" r:id="rId1"/>
@@ -31,6 +31,10 @@
     <sheet name="Informações" sheetId="2" r:id="rId16"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Atividade 01'!$B$8:$F$16</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Atividade 02'!$E$6:$E$16</definedName>
+    <definedName name="_xlnm.Extract" localSheetId="0">'Atividade 01'!$J$8:$N$8</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="0">'Atividade 01'!$H$8:$H$9</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="1" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="2" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="4" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
@@ -47,8 +51,12 @@
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="14" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="SegmentaçãodeDados_Doutor_a">#N/A</definedName>
+    <definedName name="SegmentaçãodeDados_Doutor_a1">#N/A</definedName>
     <definedName name="SegmentaçãodeDados_Horário">#N/A</definedName>
+    <definedName name="SegmentaçãodeDados_Horário1">#N/A</definedName>
+    <definedName name="SegmentaçãodeDados_Status">#N/A</definedName>
     <definedName name="SegmentaçãodeDados_Tipo">#N/A</definedName>
+    <definedName name="SegmentaçãodeDados_Tipo1">#N/A</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -60,6 +68,10 @@
         <x14:slicerCache r:id="rId17"/>
         <x14:slicerCache r:id="rId18"/>
         <x14:slicerCache r:id="rId19"/>
+        <x14:slicerCache r:id="rId20"/>
+        <x14:slicerCache r:id="rId21"/>
+        <x14:slicerCache r:id="rId22"/>
+        <x14:slicerCache r:id="rId23"/>
       </x15:slicerCaches>
     </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -78,7 +90,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="198">
   <si>
     <t>Material Curso de Excel do Básico ao Expert 2022</t>
   </si>
@@ -442,27 +454,6 @@
       </rPr>
       <t>Textos para colunas</t>
     </r>
-  </si>
-  <si>
-    <t>Igor: 08:00</t>
-  </si>
-  <si>
-    <t>Ana: 08:32</t>
-  </si>
-  <si>
-    <t>Bianca: 08:50</t>
-  </si>
-  <si>
-    <t>Cauã: 09:32</t>
-  </si>
-  <si>
-    <t>Daniela: 10:11</t>
-  </si>
-  <si>
-    <t>Elaine: 14:32</t>
-  </si>
-  <si>
-    <t>Edgar: 16:12</t>
   </si>
   <si>
     <t>Ônibus</t>
@@ -841,6 +832,45 @@
   </si>
   <si>
     <t>C) Na tabela frances traduza os titulos em inglês em anotações ou comentários</t>
+  </si>
+  <si>
+    <t>&gt;800</t>
+  </si>
+  <si>
+    <t>Igor</t>
+  </si>
+  <si>
+    <t>Cauã</t>
+  </si>
+  <si>
+    <t>Elaine</t>
+  </si>
+  <si>
+    <t>Edgar</t>
+  </si>
+  <si>
+    <t>Saída</t>
+  </si>
+  <si>
+    <t>Tempo de viagem</t>
+  </si>
+  <si>
+    <t>9 Hrs</t>
+  </si>
+  <si>
+    <t>10 Hrs</t>
+  </si>
+  <si>
+    <t>5 Hrs</t>
+  </si>
+  <si>
+    <t>4 Hrs</t>
+  </si>
+  <si>
+    <t>13 Hrs</t>
+  </si>
+  <si>
+    <t>7 Hrs</t>
   </si>
 </sst>
 </file>
@@ -962,7 +992,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -1238,6 +1268,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color theme="9" tint="-0.249977111117893"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="9" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1250,7 +1298,7 @@
     <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1410,6 +1458,32 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="1" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+      <extLst>
+        <ext xmlns:xfpb="http://schemas.microsoft.com/office/spreadsheetml/2022/featurepropertybag" uri="{C7286773-470A-42A8-94C5-96B5CB345126}">
+          <xfpb:xfComplement i="0"/>
+        </ext>
+      </extLst>
+    </xf>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -1422,13 +1496,109 @@
     <cellStyle name="Porcentagem 2" xfId="6" xr:uid="{824F48ED-BDDD-4FD4-92B2-85BA3D9D1576}"/>
     <cellStyle name="Vírgula 2" xfId="3" xr:uid="{2FF3DD20-85D6-40FD-B5AB-DB16F813AC61}"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="13">
     <dxf>
       <fill>
         <patternFill>
           <bgColor theme="9" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="25" formatCode="hh:mm"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="21" formatCode="dd/mmm"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="21" formatCode="dd/mmm"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="21" formatCode="dd/mmm"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="21" formatCode="dd/mmm"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="25" formatCode="hh:mm"/>
@@ -1448,6 +1618,89 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>289560</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>15241</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" Requires="sle15">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="3" name="Status">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC92F517-B199-E83E-A703-D843AF3D9782}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
+              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="Status"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6408420" y="1021081"/>
+              <a:ext cx="1828800" cy="937260"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="pt-BR" sz="1100"/>
+                <a:t>Esta forma representa um slicer da tabela. As segmentações de dados da tabela não são suportadas nesta versão do Excel.
+Se a forma tiver sido modificada em uma versão anterior do Excel, ou se a pasta de trabalho foi salva no Excel 2007 ou anterior, a segmentação de dados não pode ser usada.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
@@ -1686,6 +1939,262 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>3138</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>171228</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>173468</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" Requires="sle15">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="4" name="Horário 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A907FFCC-3284-AA51-5F7E-2D728E02ED45}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
+              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="Horário 1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5229562" y="987016"/>
+              <a:ext cx="1828800" cy="725243"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="pt-BR" sz="1100"/>
+                <a:t>Esta forma representa um slicer da tabela. As segmentações de dados da tabela não são suportadas nesta versão do Excel.
+Se a forma tiver sido modificada em uma versão anterior do Excel, ou se a pasta de trabalho foi salva no Excel 2007 ou anterior, a segmentação de dados não pode ser usada.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>850749</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>59615</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>169431</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>26893</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" Requires="sle15">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="5" name="Tipo 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E83DA0EE-C498-EA5B-4F4E-05CF6B537B10}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
+              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="Tipo 1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5225525" y="1771874"/>
+              <a:ext cx="1828800" cy="1760219"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="pt-BR" sz="1100"/>
+                <a:t>Esta forma representa um slicer da tabela. As segmentações de dados da tabela não são suportadas nesta versão do Excel.
+Se a forma tiver sido modificada em uma versão anterior do Excel, ou se a pasta de trabalho foi salva no Excel 2007 ou anterior, a segmentação de dados não pode ser usada.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>281941</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>1793</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>667423</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>170329</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" Requires="sle15">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="6" name="Doutor(a) 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{866A848A-787A-D8EB-98AA-3B3502230B2B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
+              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="Doutor(a) 1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7166835" y="996875"/>
+              <a:ext cx="1828800" cy="2499360"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="pt-BR" sz="1100"/>
+                <a:t>Esta forma representa um slicer da tabela. As segmentações de dados da tabela não são suportadas nesta versão do Excel.
+Se a forma tiver sido modificada em uma versão anterior do Excel, ou se a pasta de trabalho foi salva no Excel 2007 ou anterior, a segmentação de dados não pode ser usada.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/featurePropertyBag/featurePropertyBag.xml><?xml version="1.0" encoding="utf-8"?>
+<FeaturePropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2022/featurepropertybag">
+  <bag type="Checkbox"/>
+  <bag type="XFControls">
+    <bagId k="CellControl">0</bagId>
+  </bag>
+  <bag type="XFComplement">
+    <bagId k="XFControls">1</bagId>
+  </bag>
+  <bag type="XFComplements" extRef="XFComplementsMapperExtRef">
+    <a k="MappedFeaturePropertyBags">
+      <bagId>2</bagId>
+    </a>
+  </bag>
+</FeaturePropertyBags>
+</file>
+
 <file path=xl/slicerCaches/slicerCache1.xml><?xml version="1.0" encoding="utf-8"?>
 <slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="SegmentaçãodeDados_Horário" xr10:uid="{FFB531B6-1D40-4FD1-85D3-057C588C33F8}" sourceName="Horário">
   <extLst>
@@ -1716,7 +2225,53 @@
 </slicerCacheDefinition>
 </file>
 
+<file path=xl/slicerCaches/slicerCache4.xml><?xml version="1.0" encoding="utf-8"?>
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="SegmentaçãodeDados_Status" xr10:uid="{B2AAF538-E589-4F0B-A3CB-1A985FCBDACB}" sourceName="Status">
+  <extLst>
+    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{2F2917AC-EB37-4324-AD4E-5DD8C200BD13}">
+      <x15:tableSlicerCache tableId="6" column="4"/>
+    </x:ext>
+  </extLst>
+</slicerCacheDefinition>
+</file>
+
+<file path=xl/slicerCaches/slicerCache5.xml><?xml version="1.0" encoding="utf-8"?>
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="SegmentaçãodeDados_Horário1" xr10:uid="{1B09DF8F-A2DC-4B52-AB34-529D8905BA0A}" sourceName="Horário">
+  <extLst>
+    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{2F2917AC-EB37-4324-AD4E-5DD8C200BD13}">
+      <x15:tableSlicerCache tableId="9" column="2"/>
+    </x:ext>
+  </extLst>
+</slicerCacheDefinition>
+</file>
+
+<file path=xl/slicerCaches/slicerCache6.xml><?xml version="1.0" encoding="utf-8"?>
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="SegmentaçãodeDados_Tipo1" xr10:uid="{6448BEEC-F0DC-49AE-A5DF-22E2D4579879}" sourceName="Tipo">
+  <extLst>
+    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{2F2917AC-EB37-4324-AD4E-5DD8C200BD13}">
+      <x15:tableSlicerCache tableId="9" column="3"/>
+    </x:ext>
+  </extLst>
+</slicerCacheDefinition>
+</file>
+
+<file path=xl/slicerCaches/slicerCache7.xml><?xml version="1.0" encoding="utf-8"?>
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="SegmentaçãodeDados_Doutor_a1" xr10:uid="{BA70E1C5-6516-430E-B29C-5FF893E27B8C}" sourceName="Doutor(a)">
+  <extLst>
+    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{2F2917AC-EB37-4324-AD4E-5DD8C200BD13}">
+      <x15:tableSlicerCache tableId="9" column="4"/>
+    </x:ext>
+  </extLst>
+</slicerCacheDefinition>
+</file>
+
 <file path=xl/slicers/slicer1.xml><?xml version="1.0" encoding="utf-8"?>
+<slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
+  <slicer name="Status" xr10:uid="{EB705B0E-F9BE-424D-A869-B93771EB9252}" cache="SegmentaçãodeDados_Status" caption="Status" style="SlicerStyleLight6" rowHeight="234950"/>
+</slicers>
+</file>
+
+<file path=xl/slicers/slicer2.xml><?xml version="1.0" encoding="utf-8"?>
 <slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
   <slicer name="Horário" xr10:uid="{C54D72AC-86F4-4968-9BD5-E5723FD53B30}" cache="SegmentaçãodeDados_Horário" caption="Horário" columnCount="3" style="SlicerStyleDark6" rowHeight="241300"/>
   <slicer name="Tipo" xr10:uid="{027A3498-C992-4ACC-BD52-46816D30A716}" cache="SegmentaçãodeDados_Tipo" caption="Tipo" style="SlicerStyleDark6" rowHeight="241300"/>
@@ -1724,7 +2279,98 @@
 </slicers>
 </file>
 
+<file path=xl/slicers/slicer3.xml><?xml version="1.0" encoding="utf-8"?>
+<slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
+  <slicer name="Horário 1" xr10:uid="{0E9F38CE-F5AB-4EB5-905E-9F3484E75FB6}" cache="SegmentaçãodeDados_Horário1" caption="Horário" columnCount="3" style="SlicerStyleDark6" rowHeight="234950"/>
+  <slicer name="Tipo 1" xr10:uid="{01587B3B-F5E3-49D8-B272-539F90A0E7C7}" cache="SegmentaçãodeDados_Tipo1" caption="Tipo" style="SlicerStyleDark6" rowHeight="234950"/>
+  <slicer name="Doutor(a) 1" xr10:uid="{FF3FF59C-BCC9-419B-B4AE-EFEFEFA8B31A}" cache="SegmentaçãodeDados_Doutor_a1" caption="Doutor(a)" style="SlicerStyleDark6" rowHeight="234950"/>
+</slicers>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F7C367F1-B8FC-4813-857A-DFDF685E0C41}" name="Tabela1" displayName="Tabela1" ref="B8:F16" totalsRowShown="0">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B9:F16">
+    <sortCondition ref="B9:B16"/>
+  </sortState>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{E4FF8359-A45C-4C8D-BDEC-68840F795381}" name="Vendedor"/>
+    <tableColumn id="2" xr3:uid="{E5F9762C-D26D-41F6-AFCA-EE6ECCEBF833}" name="Cliente"/>
+    <tableColumn id="3" xr3:uid="{E1D53A65-664D-4791-8A6F-7AEFE6F134F8}" name="Data compra" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{F01548C6-BA4C-48EA-88A6-4FFEF0E93C0C}" name="Produto"/>
+    <tableColumn id="5" xr3:uid="{70A31261-0E66-4C99-B20D-11D2035BD325}" name="Venda" dataDxfId="10" dataCellStyle="Moeda"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{21365474-CD5A-436B-95D1-563791FDC4BE}" name="Tabela4" displayName="Tabela4" ref="H8:H9" totalsRowShown="0">
+  <autoFilter ref="H8:H9" xr:uid="{21365474-CD5A-436B-95D1-563791FDC4BE}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{53DE44A0-47AE-4165-A3DB-1BAA35A68074}" name="Venda"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{B0F0A29D-DD4F-4D69-AF49-46A9312030A0}" name="Tabela5" displayName="Tabela5" ref="J8:N13" totalsRowShown="0">
+  <autoFilter ref="J8:N13" xr:uid="{B0F0A29D-DD4F-4D69-AF49-46A9312030A0}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{37592554-5397-4BD1-AE11-BBECAA3F390A}" name="Vendedor"/>
+    <tableColumn id="2" xr3:uid="{6616110F-F752-4B47-871E-3E4F5B3E4BC2}" name="Cliente"/>
+    <tableColumn id="3" xr3:uid="{3F2343DF-8AFD-4A1F-B0D6-736A7FB5D13A}" name="Data compra" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{5457E826-545A-4713-8DDE-D5B470A87F54}" name="Produto"/>
+    <tableColumn id="5" xr3:uid="{BFD9584F-144F-481C-AB10-EFDD02C0FCDA}" name="Venda" dataDxfId="8" dataCellStyle="Moeda"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{804C4F89-888A-4726-94DF-0E26F44ACAA1}" name="Tabela6" displayName="Tabela6" ref="B6:G16" totalsRowShown="0" headerRowDxfId="5">
+  <autoFilter ref="B6:G16" xr:uid="{804C4F89-888A-4726-94DF-0E26F44ACAA1}">
+    <filterColumn colId="5">
+      <customFilters>
+        <customFilter operator="greaterThan" val="60"/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{28A14062-AA28-4294-9731-A2D37AC4D96D}" name="Cliente"/>
+    <tableColumn id="2" xr3:uid="{CAC3573F-F91F-4F2C-9ED8-04716C7DB939}" name="Data Abertura" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{4266E4E3-46B2-41AC-9B8E-7A2F4FCBAC9F}" name="Serviço"/>
+    <tableColumn id="4" xr3:uid="{576E0F9C-AD4E-45B7-A1B2-DDCF3A204DAC}" name="Status"/>
+    <tableColumn id="5" xr3:uid="{087ED161-1A0E-49CB-9AFE-7EB40AF3B849}" name="Responsável"/>
+    <tableColumn id="6" xr3:uid="{BDFA3626-7F41-4B76-A4DD-9E860E301555}" name="Valor" dataDxfId="6" dataCellStyle="Moeda"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{699B0ED3-FFE4-4946-BEA6-967EC2061C73}" name="Tabela7" displayName="Tabela7" ref="B6:E21" totalsRowShown="0">
+  <autoFilter ref="B6:E21" xr:uid="{699B0ED3-FFE4-4946-BEA6-967EC2061C73}">
+    <filterColumn colId="2">
+      <customFilters>
+        <customFilter operator="greaterThan" val="42856"/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B7:E21">
+    <sortCondition ref="B7:B21"/>
+  </sortState>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{88BAAA67-0D08-4534-9C56-4F41C75B4668}" name="Nome"/>
+    <tableColumn id="2" xr3:uid="{E2890B7F-1D89-4DA0-89A0-4FF22CF34328}" name="Região" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{C7741D29-27BA-4DCD-9928-384C9182C08D}" name="Data Compra" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{5D0D0F93-DAF4-4EB7-B8AF-AA8D67FB1032}" name="Compras" dataDxfId="2" dataCellStyle="Moeda"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DE73836E-FD70-4272-A89A-658E0AD44961}" name="Tabela2" displayName="Tabela2" ref="B6:E19" totalsRowShown="0">
   <autoFilter ref="B6:E19" xr:uid="{DE73836E-FD70-4272-A89A-658E0AD44961}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B7:E19">
@@ -1732,7 +2378,7 @@
   </sortState>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{B4DA1CB7-4200-442E-881D-24B7DC5657AD}" name="Paciente"/>
-    <tableColumn id="2" xr3:uid="{BB6D16FB-12CB-48A9-9C81-051138152704}" name="Horário" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{BB6D16FB-12CB-48A9-9C81-051138152704}" name="Horário" dataDxfId="12"/>
     <tableColumn id="3" xr3:uid="{F817DBE1-C711-4250-98FE-A2BF36B978F2}" name="Tipo"/>
     <tableColumn id="4" xr3:uid="{FC97E00D-329D-446F-8DEC-BF0AE6765E7B}" name="Doutor(a)"/>
   </tableColumns>
@@ -1740,10 +2386,23 @@
 </table>
 </file>
 
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{B4983ACB-2E4D-4E60-90E7-771BABD82DE6}" name="Tabela9" displayName="Tabela9" ref="B6:E19" totalsRowShown="0">
+  <autoFilter ref="B6:E19" xr:uid="{B4983ACB-2E4D-4E60-90E7-771BABD82DE6}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{0EB30A7E-7096-4CB1-9138-D878EAA2B22B}" name="Paciente"/>
+    <tableColumn id="2" xr3:uid="{6A24D547-9FE1-40F3-8D28-2E65A83ACAEE}" name="Horário" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{92201308-2F7A-4AFE-9CC4-D390CB4B95CC}" name="Tipo"/>
+    <tableColumn id="4" xr3:uid="{A2F4127D-A190-4E85-A4EC-2219F2D5FD05}" name="Doutor(a)"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office 2013 - 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1781,7 +2440,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1887,7 +2546,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2029,7 +2688,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2037,38 +2696,45 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49B598E5-9433-48C6-8F81-A23374499C97}">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="M16" sqref="M16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="5" width="13.6640625" customWidth="1"/>
     <col min="6" max="6" width="12.44140625" customWidth="1"/>
-    <col min="7" max="7" width="12" customWidth="1"/>
-    <col min="8" max="9" width="12.109375" customWidth="1"/>
-    <col min="11" max="11" width="16.21875" customWidth="1"/>
+    <col min="7" max="7" width="2.88671875" customWidth="1"/>
+    <col min="8" max="8" width="12.109375" customWidth="1"/>
+    <col min="9" max="9" width="2.77734375" customWidth="1"/>
+    <col min="10" max="10" width="10.5546875" customWidth="1"/>
+    <col min="11" max="11" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.109375" customWidth="1"/>
+    <col min="13" max="13" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="12" customFormat="1" ht="23.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" s="12" customFormat="1" ht="23.4" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="1" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" s="1" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="5"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>10</v>
       </c>
@@ -2084,8 +2750,26 @@
       <c r="F8" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H8" t="s">
+        <v>16</v>
+      </c>
+      <c r="J8" t="s">
+        <v>10</v>
+      </c>
+      <c r="K8" t="s">
+        <v>14</v>
+      </c>
+      <c r="L8" t="s">
+        <v>15</v>
+      </c>
+      <c r="M8" t="s">
+        <v>11</v>
+      </c>
+      <c r="N8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>17</v>
       </c>
@@ -2101,8 +2785,26 @@
       <c r="F9" s="6">
         <v>670</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H9" t="s">
+        <v>185</v>
+      </c>
+      <c r="J9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K9" t="s">
+        <v>20</v>
+      </c>
+      <c r="L9" s="7">
+        <v>42795</v>
+      </c>
+      <c r="M9" t="s">
+        <v>21</v>
+      </c>
+      <c r="N9" s="6">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>17</v>
       </c>
@@ -2118,93 +2820,153 @@
       <c r="F10" s="6">
         <v>1100</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J10" t="s">
+        <v>22</v>
+      </c>
+      <c r="K10" t="s">
+        <v>23</v>
+      </c>
+      <c r="L10" s="7">
+        <v>42796</v>
+      </c>
+      <c r="M10" t="s">
+        <v>24</v>
+      </c>
+      <c r="N10" s="6">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="7">
+        <v>42795</v>
+      </c>
+      <c r="E11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" s="6">
+        <v>195</v>
+      </c>
+      <c r="J11" t="s">
         <v>22</v>
       </c>
-      <c r="C11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" s="7">
+      <c r="K11" t="s">
+        <v>27</v>
+      </c>
+      <c r="L11" s="7">
         <v>42796</v>
       </c>
-      <c r="E11" t="s">
-        <v>24</v>
-      </c>
-      <c r="F11" s="6">
-        <v>815</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="M11" t="s">
+        <v>28</v>
+      </c>
+      <c r="N11" s="6">
+        <v>1950</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>17</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D12" s="7">
+        <v>42796</v>
+      </c>
+      <c r="E12" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" s="6">
+        <v>799</v>
+      </c>
+      <c r="J12" t="s">
+        <v>22</v>
+      </c>
+      <c r="K12" t="s">
+        <v>29</v>
+      </c>
+      <c r="L12" s="7">
         <v>42795</v>
       </c>
-      <c r="E12" t="s">
-        <v>26</v>
-      </c>
-      <c r="F12" s="6">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="M12" t="s">
+        <v>30</v>
+      </c>
+      <c r="N12" s="6">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>22</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D13" s="7">
         <v>42796</v>
       </c>
       <c r="E13" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F13" s="6">
-        <v>1950</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+        <v>815</v>
+      </c>
+      <c r="J13" t="s">
+        <v>22</v>
+      </c>
+      <c r="K13" t="s">
+        <v>33</v>
+      </c>
+      <c r="L13" s="7">
+        <v>42796</v>
+      </c>
+      <c r="M13" t="s">
+        <v>34</v>
+      </c>
+      <c r="N13" s="6">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>22</v>
       </c>
       <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="7">
+        <v>42796</v>
+      </c>
+      <c r="E14" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14" s="6">
+        <v>1950</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" t="s">
         <v>29</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D15" s="7">
         <v>42795</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E15" t="s">
         <v>30</v>
       </c>
-      <c r="F14" s="6">
+      <c r="F15" s="6">
         <v>1200</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B15" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" t="s">
-        <v>31</v>
-      </c>
-      <c r="D15" s="7">
-        <v>42796</v>
-      </c>
-      <c r="E15" t="s">
-        <v>32</v>
-      </c>
-      <c r="F15" s="6">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>22</v>
       </c>
@@ -2224,6 +2986,11 @@
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="3">
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -2258,25 +3025,25 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B6" s="33" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="C6" s="34" t="s">
         <v>108</v>
       </c>
       <c r="E6" s="33" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="F6" s="34" t="s">
         <v>109</v>
       </c>
       <c r="H6" s="33" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="I6" s="34" t="s">
         <v>110</v>
@@ -2284,19 +3051,19 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B7" s="35" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="C7" s="36">
         <v>27347</v>
       </c>
       <c r="E7" s="35" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="F7" s="36">
         <v>50782</v>
       </c>
       <c r="H7" s="35" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="I7" s="36">
         <v>37799</v>
@@ -2324,19 +3091,19 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B9" s="35" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="C9" s="36">
         <v>24696</v>
       </c>
       <c r="E9" s="35" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="F9" s="36">
         <v>40164</v>
       </c>
       <c r="H9" s="35" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="I9" s="36">
         <v>22235</v>
@@ -2344,19 +3111,19 @@
     </row>
     <row r="10" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="37" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="C10" s="38">
         <v>101795</v>
       </c>
       <c r="E10" s="37" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="F10" s="38">
         <v>111796</v>
       </c>
       <c r="H10" s="37" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="I10" s="38">
         <v>111431</v>
@@ -2366,7 +3133,7 @@
       <c r="B13" s="18"/>
       <c r="C13" s="6"/>
       <c r="D13" s="69" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="E13" s="69"/>
     </row>
@@ -2376,17 +3143,17 @@
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C15" s="10"/>
       <c r="D15" s="33" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="E15" s="34" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="F15" s="6"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C16" s="10"/>
       <c r="D16" s="35" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="E16" s="36"/>
       <c r="F16" s="6"/>
@@ -2402,14 +3169,14 @@
     <row r="18" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C18" s="10"/>
       <c r="D18" s="35" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="E18" s="36"/>
     </row>
     <row r="19" spans="3:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C19" s="10"/>
       <c r="D19" s="37" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="E19" s="38"/>
     </row>
@@ -2464,27 +3231,27 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B6" s="39" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="C6" s="40" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="D6" s="51" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="E6" s="40" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="F6" s="40" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="G6" s="41" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -2518,32 +3285,32 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B13" s="52" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B15" s="52" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B17" s="52" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -2585,12 +3352,12 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B6" s="70" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="C6" s="70"/>
     </row>
@@ -2614,7 +3381,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B9" s="56" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="C9" s="59">
         <f>SUM($C$10:$C$12)</f>
@@ -2623,7 +3390,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B10" s="53" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="C10" s="6">
         <v>222</v>
@@ -2631,7 +3398,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B11" s="53" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="C11" s="6">
         <v>130</v>
@@ -2639,7 +3406,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B12" s="53" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="C12" s="6">
         <v>68</v>
@@ -2656,7 +3423,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B14" s="53" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="C14" s="6">
         <v>274</v>
@@ -2664,7 +3431,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B15" s="53" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="C15" s="6">
         <v>145</v>
@@ -2672,7 +3439,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B16" s="53" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="C16" s="6">
         <v>59</v>
@@ -2689,7 +3456,7 @@
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B18" s="53" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="C18" s="6">
         <v>78</v>
@@ -2697,7 +3464,7 @@
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B19" s="53" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="C19" s="6">
         <v>273</v>
@@ -2705,7 +3472,7 @@
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B20" s="53" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="C20" s="6">
         <v>76</v>
@@ -2722,7 +3489,7 @@
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B22" s="56" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="C22" s="59">
         <f>SUM($C$23:$C$25)</f>
@@ -2731,7 +3498,7 @@
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B23" s="53" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="C23" s="6">
         <v>100</v>
@@ -2739,7 +3506,7 @@
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B24" s="53" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="C24" s="6">
         <v>66</v>
@@ -2747,7 +3514,7 @@
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B25" s="53" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="C25" s="6">
         <v>260</v>
@@ -2764,7 +3531,7 @@
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B27" s="53" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="C27" s="6">
         <v>61</v>
@@ -2772,7 +3539,7 @@
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B28" s="53" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="C28" s="6">
         <v>184</v>
@@ -2780,7 +3547,7 @@
     </row>
     <row r="29" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B29" s="53" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="C29" s="6">
         <v>254</v>
@@ -2797,7 +3564,7 @@
     </row>
     <row r="31" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B31" s="53" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="C31" s="6">
         <v>197</v>
@@ -2805,7 +3572,7 @@
     </row>
     <row r="32" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B32" s="53" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="C32" s="6">
         <v>164</v>
@@ -2813,7 +3580,7 @@
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B33" s="53" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="C33" s="6">
         <v>226</v>
@@ -2835,7 +3602,7 @@
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B36" s="56" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="C36" s="59">
         <f>SUM($C$37:$C$39)</f>
@@ -2844,7 +3611,7 @@
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B37" s="53" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="C37" s="6">
         <v>51</v>
@@ -2852,7 +3619,7 @@
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B38" s="53" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="C38" s="6">
         <v>142</v>
@@ -2860,7 +3627,7 @@
     </row>
     <row r="39" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B39" s="53" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="C39" s="6">
         <v>254</v>
@@ -2877,7 +3644,7 @@
     </row>
     <row r="41" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B41" s="53" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="C41" s="6">
         <v>107</v>
@@ -2885,7 +3652,7 @@
     </row>
     <row r="42" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B42" s="53" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="C42" s="6">
         <v>63</v>
@@ -2893,7 +3660,7 @@
     </row>
     <row r="43" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B43" s="53" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="C43" s="6">
         <v>111</v>
@@ -2910,7 +3677,7 @@
     </row>
     <row r="45" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B45" s="53" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="C45" s="6">
         <v>290</v>
@@ -2918,7 +3685,7 @@
     </row>
     <row r="46" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B46" s="53" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="C46" s="6">
         <v>298</v>
@@ -2926,7 +3693,7 @@
     </row>
     <row r="47" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B47" s="53" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="C47" s="6">
         <v>86</v>
@@ -2943,7 +3710,7 @@
     </row>
     <row r="49" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B49" s="56" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="C49" s="59">
         <f>SUM($C$50:$C$52)</f>
@@ -2952,7 +3719,7 @@
     </row>
     <row r="50" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B50" s="53" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="C50" s="6">
         <v>156</v>
@@ -2960,7 +3727,7 @@
     </row>
     <row r="51" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B51" s="53" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="C51" s="6">
         <v>265</v>
@@ -2968,7 +3735,7 @@
     </row>
     <row r="52" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B52" s="53" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="C52" s="6">
         <v>121</v>
@@ -2985,7 +3752,7 @@
     </row>
     <row r="54" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B54" s="53" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="C54" s="6">
         <v>270</v>
@@ -2993,7 +3760,7 @@
     </row>
     <row r="55" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B55" s="53" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="C55" s="6">
         <v>199</v>
@@ -3001,7 +3768,7 @@
     </row>
     <row r="56" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B56" s="53" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="C56" s="6">
         <v>244</v>
@@ -3018,7 +3785,7 @@
     </row>
     <row r="58" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B58" s="53" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="C58" s="6">
         <v>99</v>
@@ -3026,7 +3793,7 @@
     </row>
     <row r="59" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B59" s="53" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="C59" s="6">
         <v>193</v>
@@ -3034,7 +3801,7 @@
     </row>
     <row r="60" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B60" s="53" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="C60" s="6">
         <v>54</v>
@@ -3085,7 +3852,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="C4" s="6"/>
     </row>
@@ -3097,18 +3864,18 @@
         <v>10</v>
       </c>
       <c r="C6" s="60" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="D6" s="61" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B7" s="62" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="C7" s="62" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="D7" s="63">
         <v>3500</v>
@@ -3116,10 +3883,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B8" s="62" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="C8" s="62" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="D8" s="63">
         <v>2800</v>
@@ -3127,10 +3894,10 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B9" s="62" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="C9" s="62" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="D9" s="63">
         <v>1680</v>
@@ -3138,10 +3905,10 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B10" s="62" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="C10" s="62" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="D10" s="63">
         <v>2400</v>
@@ -3149,10 +3916,10 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B11" s="62" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="C11" s="62" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="D11" s="63">
         <v>3400</v>
@@ -3160,10 +3927,10 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B12" s="62" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="C12" s="62" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="D12" s="63">
         <v>2600</v>
@@ -3171,10 +3938,10 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B13" s="62" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="C13" s="62" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="D13" s="63">
         <v>2000</v>
@@ -3182,10 +3949,10 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B14" s="62" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="C14" s="62" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="D14" s="63">
         <v>3700</v>
@@ -3193,10 +3960,10 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B15" s="62" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="C15" s="62" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="D15" s="63">
         <v>1650</v>
@@ -3204,10 +3971,10 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B16" s="62" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="C16" s="62" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="D16" s="63">
         <v>2600</v>
@@ -3255,17 +4022,17 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="C4" s="6"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C5" s="6"/>
       <c r="F5" s="64" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="G5" s="64" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -3273,24 +4040,24 @@
         <v>10</v>
       </c>
       <c r="C6" s="60" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="D6" s="61" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="F6" s="65" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="G6" s="65" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B7" s="62" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="C7" s="62" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="D7" s="63">
         <v>3500</v>
@@ -3298,10 +4065,10 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B8" s="62" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="C8" s="62" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="D8" s="63">
         <v>2800</v>
@@ -3309,10 +4076,10 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B9" s="62" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="C9" s="62" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="D9" s="63">
         <v>1680</v>
@@ -3320,10 +4087,10 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B10" s="62" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="C10" s="62" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="D10" s="63">
         <v>2400</v>
@@ -3331,10 +4098,10 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B11" s="62" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="C11" s="62" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="D11" s="63">
         <v>3400</v>
@@ -3342,10 +4109,10 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B12" s="62" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="C12" s="62" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="D12" s="63">
         <v>2600</v>
@@ -3353,10 +4120,10 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B13" s="62" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="C13" s="62" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="D13" s="63">
         <v>2000</v>
@@ -3364,10 +4131,10 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B14" s="62" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="C14" s="62" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="D14" s="63">
         <v>3700</v>
@@ -3375,10 +4142,10 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B15" s="62" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="C15" s="62" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="D15" s="63">
         <v>1650</v>
@@ -3386,10 +4153,10 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B16" s="62" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="C16" s="62" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="D16" s="63">
         <v>2600</v>
@@ -3437,23 +4204,23 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="C4" s="6"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="G7" s="71" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="H7" s="71"/>
       <c r="I7" s="71"/>
@@ -3461,16 +4228,16 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B9" s="66" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="C9" s="66" t="s">
         <v>63</v>
       </c>
       <c r="D9" s="66" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="E9" s="66" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="G9" s="66"/>
       <c r="H9" s="66"/>
@@ -3601,7 +4368,279 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:XFD3"/>
+      <selection activeCell="L9" sqref="L9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="13.6640625" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" customWidth="1"/>
+    <col min="4" max="5" width="13.6640625" customWidth="1"/>
+    <col min="6" max="6" width="13" customWidth="1"/>
+    <col min="7" max="7" width="12" customWidth="1"/>
+    <col min="8" max="9" width="12.109375" customWidth="1"/>
+    <col min="11" max="11" width="16.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="12" customFormat="1" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="1" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="5"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="9">
+        <v>42957</v>
+      </c>
+      <c r="D7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G7" s="6">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" s="9">
+        <v>42958</v>
+      </c>
+      <c r="D8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" t="s">
+        <v>46</v>
+      </c>
+      <c r="G8" s="6">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" s="9">
+        <v>42958</v>
+      </c>
+      <c r="D9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" t="s">
+        <v>46</v>
+      </c>
+      <c r="G9" s="6">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="9">
+        <v>42957</v>
+      </c>
+      <c r="D10" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" t="s">
+        <v>46</v>
+      </c>
+      <c r="G10" s="6">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" s="9">
+        <v>42958</v>
+      </c>
+      <c r="D11" t="s">
+        <v>55</v>
+      </c>
+      <c r="E11" t="s">
+        <v>45</v>
+      </c>
+      <c r="F11" t="s">
+        <v>42</v>
+      </c>
+      <c r="G11" s="6">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="9">
+        <v>42957</v>
+      </c>
+      <c r="D12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" t="s">
+        <v>41</v>
+      </c>
+      <c r="F12" t="s">
+        <v>42</v>
+      </c>
+      <c r="G12" s="6">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" s="9">
+        <v>42958</v>
+      </c>
+      <c r="D13" t="s">
+        <v>53</v>
+      </c>
+      <c r="E13" t="s">
+        <v>45</v>
+      </c>
+      <c r="F13" t="s">
+        <v>42</v>
+      </c>
+      <c r="G13" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>58</v>
+      </c>
+      <c r="C14" s="9">
+        <v>42959</v>
+      </c>
+      <c r="D14" t="s">
+        <v>59</v>
+      </c>
+      <c r="E14" t="s">
+        <v>41</v>
+      </c>
+      <c r="F14" t="s">
+        <v>46</v>
+      </c>
+      <c r="G14" s="6">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15" s="9">
+        <v>42959</v>
+      </c>
+      <c r="D15" t="s">
+        <v>44</v>
+      </c>
+      <c r="E15" t="s">
+        <v>41</v>
+      </c>
+      <c r="F15" t="s">
+        <v>42</v>
+      </c>
+      <c r="G15" s="6">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" s="9">
+        <v>42959</v>
+      </c>
+      <c r="D16" t="s">
+        <v>57</v>
+      </c>
+      <c r="E16" t="s">
+        <v>41</v>
+      </c>
+      <c r="F16" t="s">
+        <v>46</v>
+      </c>
+      <c r="G16" s="6">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B7:G16">
+    <sortCondition ref="B7:B16"/>
+  </sortState>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{3A4CF648-6AED-40f4-86FF-DC5316D8AED3}">
+      <x14:slicerList xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
+        <x14:slicer r:id="rId4"/>
+      </x14:slicerList>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CCF9293-B4C3-4B5C-BF38-E5D4F482C3C4}">
+  <dimension ref="A1:G21"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3623,504 +4662,251 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" t="s">
+        <v>64</v>
+      </c>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+    </row>
+    <row r="7" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C7" s="9">
-        <v>42957</v>
-      </c>
-      <c r="D7" t="s">
-        <v>40</v>
-      </c>
-      <c r="E7" t="s">
-        <v>41</v>
-      </c>
-      <c r="F7" t="s">
-        <v>42</v>
-      </c>
-      <c r="G7" s="6">
-        <v>45</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="9">
+        <v>42856</v>
+      </c>
+      <c r="E7" s="6">
+        <v>560</v>
+      </c>
+      <c r="G7" s="6"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>43</v>
-      </c>
-      <c r="C8" s="9">
-        <v>42957</v>
-      </c>
-      <c r="D8" t="s">
-        <v>44</v>
-      </c>
-      <c r="E8" t="s">
-        <v>45</v>
-      </c>
-      <c r="F8" t="s">
-        <v>46</v>
-      </c>
-      <c r="G8" s="6">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="9">
+        <v>42859</v>
+      </c>
+      <c r="E8" s="6">
+        <v>74.3</v>
+      </c>
+      <c r="G8" s="6"/>
+    </row>
+    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>47</v>
-      </c>
-      <c r="C9" s="9">
-        <v>42957</v>
-      </c>
-      <c r="D9" t="s">
-        <v>48</v>
-      </c>
-      <c r="E9" t="s">
-        <v>45</v>
-      </c>
-      <c r="F9" t="s">
-        <v>42</v>
-      </c>
-      <c r="G9" s="6">
-        <v>40</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="9">
+        <v>42856</v>
+      </c>
+      <c r="E9" s="6">
+        <v>115</v>
+      </c>
+      <c r="G9" s="6"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>49</v>
-      </c>
-      <c r="C10" s="9">
-        <v>42958</v>
-      </c>
-      <c r="D10" t="s">
-        <v>50</v>
-      </c>
-      <c r="E10" t="s">
-        <v>41</v>
-      </c>
-      <c r="F10" t="s">
-        <v>46</v>
-      </c>
-      <c r="G10" s="6">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="9">
+        <v>42858</v>
+      </c>
+      <c r="E10" s="6">
+        <v>205.36</v>
+      </c>
+      <c r="G10" s="6"/>
+    </row>
+    <row r="11" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>51</v>
-      </c>
-      <c r="C11" s="9">
-        <v>42958</v>
-      </c>
-      <c r="D11" t="s">
-        <v>44</v>
-      </c>
-      <c r="E11" t="s">
-        <v>41</v>
-      </c>
-      <c r="F11" t="s">
-        <v>46</v>
-      </c>
-      <c r="G11" s="6">
-        <v>110</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="9">
+        <v>42856</v>
+      </c>
+      <c r="E11" s="6">
+        <v>320</v>
+      </c>
+      <c r="G11" s="6"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>52</v>
-      </c>
-      <c r="C12" s="9">
-        <v>42958</v>
-      </c>
-      <c r="D12" t="s">
-        <v>53</v>
-      </c>
-      <c r="E12" t="s">
-        <v>45</v>
-      </c>
-      <c r="F12" t="s">
-        <v>42</v>
-      </c>
-      <c r="G12" s="6">
-        <v>60</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="9">
+        <v>42858</v>
+      </c>
+      <c r="E12" s="6">
+        <v>384.25</v>
+      </c>
+      <c r="G12" s="6"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>54</v>
-      </c>
-      <c r="C13" s="9">
-        <v>42958</v>
-      </c>
-      <c r="D13" t="s">
-        <v>55</v>
-      </c>
-      <c r="E13" t="s">
-        <v>45</v>
-      </c>
-      <c r="F13" t="s">
-        <v>42</v>
-      </c>
-      <c r="G13" s="6">
-        <v>35</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="9">
+        <v>42859</v>
+      </c>
+      <c r="E13" s="6">
+        <v>204.35</v>
+      </c>
+      <c r="G13" s="6"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>56</v>
-      </c>
-      <c r="C14" s="9">
-        <v>42959</v>
-      </c>
-      <c r="D14" t="s">
-        <v>57</v>
-      </c>
-      <c r="E14" t="s">
-        <v>41</v>
-      </c>
-      <c r="F14" t="s">
-        <v>46</v>
-      </c>
-      <c r="G14" s="6">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="9">
+        <v>42858</v>
+      </c>
+      <c r="E14" s="6">
+        <v>81.900000000000006</v>
+      </c>
+      <c r="G14" s="6"/>
+    </row>
+    <row r="15" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>58</v>
-      </c>
-      <c r="C15" s="9">
-        <v>42959</v>
-      </c>
-      <c r="D15" t="s">
-        <v>59</v>
-      </c>
-      <c r="E15" t="s">
-        <v>41</v>
-      </c>
-      <c r="F15" t="s">
-        <v>46</v>
-      </c>
-      <c r="G15" s="6">
-        <v>35</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="9">
+        <v>42856</v>
+      </c>
+      <c r="E15" s="6">
+        <v>140.35</v>
+      </c>
+      <c r="G15" s="6"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>60</v>
-      </c>
-      <c r="C16" s="9">
-        <v>42959</v>
-      </c>
-      <c r="D16" t="s">
-        <v>44</v>
-      </c>
-      <c r="E16" t="s">
-        <v>41</v>
-      </c>
-      <c r="F16" t="s">
-        <v>42</v>
-      </c>
-      <c r="G16" s="6">
-        <v>80</v>
+        <v>69</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="9">
+        <v>42858</v>
+      </c>
+      <c r="E16" s="6">
+        <v>287.3</v>
+      </c>
+      <c r="G16" s="6"/>
+    </row>
+    <row r="17" spans="2:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>76</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="9">
+        <v>42856</v>
+      </c>
+      <c r="E17" s="6">
+        <v>162.35</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>70</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="9">
+        <v>42858</v>
+      </c>
+      <c r="E18" s="6">
+        <v>652.15</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>77</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="9">
+        <v>42859</v>
+      </c>
+      <c r="E19" s="6">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>74</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="9">
+        <v>42859</v>
+      </c>
+      <c r="E20" s="6">
+        <v>198.6</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>79</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" s="9">
+        <v>42859</v>
+      </c>
+      <c r="E21" s="6">
+        <v>347.5</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CCF9293-B4C3-4B5C-BF38-E5D4F482C3C4}">
-  <dimension ref="A1:G21"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:XFD3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="5" width="13.6640625" customWidth="1"/>
-    <col min="6" max="6" width="12.44140625" customWidth="1"/>
-    <col min="7" max="7" width="12" customWidth="1"/>
-    <col min="8" max="9" width="12.109375" customWidth="1"/>
-    <col min="11" max="11" width="16.21875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" s="12" customFormat="1" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" s="1" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="5"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
-        <v>63</v>
-      </c>
-      <c r="C6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" t="s">
-        <v>64</v>
-      </c>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
-        <v>65</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="9">
-        <v>42856</v>
-      </c>
-      <c r="E7" s="6">
-        <v>560</v>
-      </c>
-      <c r="G7" s="6"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B8" t="s">
-        <v>66</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="9">
-        <v>42856</v>
-      </c>
-      <c r="E8" s="6">
-        <v>140.35</v>
-      </c>
-      <c r="G8" s="6"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B9" t="s">
-        <v>67</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="9">
-        <v>42858</v>
-      </c>
-      <c r="E9" s="6">
-        <v>81.900000000000006</v>
-      </c>
-      <c r="G9" s="6"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B10" t="s">
-        <v>68</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="9">
-        <v>42856</v>
-      </c>
-      <c r="E10" s="6">
-        <v>320</v>
-      </c>
-      <c r="G10" s="6"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B11" t="s">
-        <v>69</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="9">
-        <v>42858</v>
-      </c>
-      <c r="E11" s="6">
-        <v>287.3</v>
-      </c>
-      <c r="G11" s="6"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B12" t="s">
-        <v>70</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" s="9">
-        <v>42858</v>
-      </c>
-      <c r="E12" s="6">
-        <v>652.15</v>
-      </c>
-      <c r="G12" s="6"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B13" t="s">
-        <v>71</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" s="9">
-        <v>42859</v>
-      </c>
-      <c r="E13" s="6">
-        <v>74.3</v>
-      </c>
-      <c r="G13" s="6"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B14" t="s">
-        <v>72</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" s="9">
-        <v>42856</v>
-      </c>
-      <c r="E14" s="6">
-        <v>115</v>
-      </c>
-      <c r="G14" s="6"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B15" t="s">
-        <v>73</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D15" s="9">
-        <v>42858</v>
-      </c>
-      <c r="E15" s="6">
-        <v>205.36</v>
-      </c>
-      <c r="G15" s="6"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B16" t="s">
-        <v>74</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D16" s="9">
-        <v>42859</v>
-      </c>
-      <c r="E16" s="6">
-        <v>198.6</v>
-      </c>
-      <c r="G16" s="6"/>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B17" t="s">
-        <v>75</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17" s="9">
-        <v>42859</v>
-      </c>
-      <c r="E17" s="6">
-        <v>204.35</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B18" t="s">
-        <v>76</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D18" s="9">
-        <v>42856</v>
-      </c>
-      <c r="E18" s="6">
-        <v>162.35</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B19" t="s">
-        <v>77</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D19" s="9">
-        <v>42859</v>
-      </c>
-      <c r="E19" s="6">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B20" t="s">
-        <v>78</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D20" s="9">
-        <v>42858</v>
-      </c>
-      <c r="E20" s="6">
-        <v>384.25</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B21" t="s">
-        <v>79</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D21" s="9">
-        <v>42859</v>
-      </c>
-      <c r="E21" s="6">
-        <v>347.5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -4394,7 +5180,7 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection sqref="A1:XFD3"/>
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4640,6 +5426,17 @@
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{3A4CF648-6AED-40f4-86FF-DC5316D8AED3}">
+      <x14:slicerList xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
+        <x14:slicer r:id="rId4"/>
+      </x14:slicerList>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -4648,7 +5445,7 @@
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4739,9 +5536,18 @@
       <c r="B11" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
+      <c r="C11" s="16">
+        <f>SUM($C$8:C10)</f>
+        <v>121</v>
+      </c>
+      <c r="D11" s="16">
+        <f>SUM($C$8:D10)</f>
+        <v>187</v>
+      </c>
+      <c r="E11" s="16">
+        <f>SUM($C$8:E10)</f>
+        <v>335</v>
+      </c>
       <c r="G11" s="6"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
@@ -4799,7 +5605,7 @@
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B7" sqref="B7:B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4831,44 +5637,44 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B7" s="18" t="s">
-        <v>117</v>
+      <c r="B7" s="73" t="s">
+        <v>186</v>
       </c>
       <c r="C7" s="8"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B8" s="18" t="s">
-        <v>118</v>
+      <c r="B8" s="73" t="s">
+        <v>164</v>
       </c>
       <c r="C8" s="6"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B9" s="18" t="s">
-        <v>119</v>
+      <c r="B9" s="73" t="s">
+        <v>72</v>
       </c>
       <c r="C9" s="6"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B10" s="18" t="s">
-        <v>120</v>
+      <c r="B10" s="73" t="s">
+        <v>187</v>
       </c>
       <c r="C10" s="6"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B11" s="18" t="s">
-        <v>121</v>
+      <c r="B11" s="73" t="s">
+        <v>27</v>
       </c>
       <c r="C11" s="6"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B12" s="18" t="s">
-        <v>122</v>
+      <c r="B12" s="73" t="s">
+        <v>188</v>
       </c>
       <c r="C12" s="6"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B13" s="18" t="s">
-        <v>123</v>
+      <c r="B13" s="73" t="s">
+        <v>189</v>
       </c>
       <c r="C13" s="6"/>
     </row>
@@ -4914,128 +5720,175 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14D23BCB-4D56-4B2B-A162-CB7FBF95E568}">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="15.88671875" customWidth="1"/>
-    <col min="3" max="3" width="22.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15" customWidth="1"/>
-    <col min="5" max="5" width="12.44140625" customWidth="1"/>
-    <col min="6" max="6" width="12" customWidth="1"/>
-    <col min="7" max="8" width="12.109375" customWidth="1"/>
-    <col min="10" max="10" width="16.21875" customWidth="1"/>
+    <col min="2" max="3" width="15.88671875" customWidth="1"/>
+    <col min="4" max="4" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" customWidth="1"/>
+    <col min="7" max="7" width="12.44140625" customWidth="1"/>
+    <col min="8" max="8" width="12" customWidth="1"/>
+    <col min="9" max="10" width="12.109375" customWidth="1"/>
+    <col min="12" max="12" width="16.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="12" customFormat="1" ht="23.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="12" customFormat="1" ht="23.4" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="1" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" s="1" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="5"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B6" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="C6" s="74" t="s">
+        <v>190</v>
+      </c>
+      <c r="D6" s="74" t="s">
+        <v>191</v>
+      </c>
+      <c r="E6" s="20" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B6" s="19" t="s">
-        <v>124</v>
-      </c>
-      <c r="C6" s="20" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B7" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="C7" s="75">
+        <v>0.4861111111111111</v>
+      </c>
+      <c r="D7" s="75" t="s">
+        <v>192</v>
+      </c>
+      <c r="E7" s="24" t="s">
         <v>125</v>
       </c>
-      <c r="C7" s="24" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B8" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="C8" s="76">
+        <v>0.54652777777777772</v>
+      </c>
+      <c r="D8" s="76" t="s">
+        <v>193</v>
+      </c>
+      <c r="E8" s="25" t="s">
         <v>126</v>
       </c>
-      <c r="C8" s="25" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B9" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="C9" s="75">
+        <v>0.5625</v>
+      </c>
+      <c r="D9" s="75" t="s">
+        <v>194</v>
+      </c>
+      <c r="E9" s="24" t="s">
         <v>127</v>
       </c>
-      <c r="C9" s="24" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B10" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="C10" s="76">
+        <v>0.6875</v>
+      </c>
+      <c r="D10" s="79" t="s">
+        <v>195</v>
+      </c>
+      <c r="E10" s="25" t="s">
         <v>128</v>
       </c>
-      <c r="C10" s="25" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B11" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="C11" s="75">
+        <v>0.69097222222222221</v>
+      </c>
+      <c r="D11" s="75" t="s">
+        <v>196</v>
+      </c>
+      <c r="E11" s="24" t="s">
         <v>129</v>
       </c>
-      <c r="C11" s="24" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="12" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="C12" s="77">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D12" s="78" t="s">
+        <v>197</v>
+      </c>
+      <c r="E12" s="26" t="s">
         <v>130</v>
       </c>
-      <c r="C12" s="26" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B13" s="18"/>
-      <c r="C13" s="6"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C14" s="6"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C15" s="10"/>
-      <c r="F15" s="6"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C16" s="10"/>
-      <c r="F16" s="6"/>
-    </row>
-    <row r="17" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C17" s="10"/>
-      <c r="F17" s="6"/>
-    </row>
-    <row r="18" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C18" s="10"/>
-    </row>
-    <row r="19" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C19" s="10"/>
-    </row>
-    <row r="20" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C20" s="10"/>
-    </row>
-    <row r="21" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C21" s="8"/>
-      <c r="D21" s="9"/>
-    </row>
-    <row r="22" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C22" s="8"/>
-      <c r="D22" s="9"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="6"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E14" s="6"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E15" s="10"/>
+      <c r="H15" s="6"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E16" s="10"/>
+      <c r="H16" s="6"/>
+    </row>
+    <row r="17" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E17" s="10"/>
+      <c r="H17" s="6"/>
+    </row>
+    <row r="18" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E18" s="10"/>
+    </row>
+    <row r="19" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E19" s="10"/>
+    </row>
+    <row r="20" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E20" s="10"/>
+    </row>
+    <row r="21" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E21" s="8"/>
+      <c r="F21" s="9"/>
+    </row>
+    <row r="22" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E22" s="8"/>
+      <c r="F22" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -5074,18 +5927,18 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B6" s="13" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="C6" s="32" t="s">
         <v>63</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -5093,11 +5946,11 @@
         <v>1</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="D7" s="29">
         <f ca="1">RANDBETWEEN(50,99)</f>
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -5105,11 +5958,11 @@
         <v>2</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="D8" s="29">
         <f t="shared" ref="D8:D20" ca="1" si="0">RANDBETWEEN(50,99)</f>
-        <v>81</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -5117,11 +5970,11 @@
         <v>3</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="D9" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -5129,11 +5982,11 @@
         <v>4</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="D10" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>78</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -5141,11 +5994,11 @@
         <v>4</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="D11" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -5153,11 +6006,11 @@
         <v>4</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="D12" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>96</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -5165,11 +6018,11 @@
         <v>5</v>
       </c>
       <c r="C13" s="27" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="D13" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -5177,11 +6030,11 @@
         <v>5</v>
       </c>
       <c r="C14" s="27" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="D14" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>52</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -5189,11 +6042,11 @@
         <v>5</v>
       </c>
       <c r="C15" s="27" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="D15" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="F15" s="6"/>
     </row>
@@ -5202,11 +6055,11 @@
         <v>6</v>
       </c>
       <c r="C16" s="28" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="D16" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F16" s="6"/>
     </row>
@@ -5215,11 +6068,11 @@
         <v>7</v>
       </c>
       <c r="C17" s="28" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="D17" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="F17" s="6"/>
     </row>
@@ -5228,11 +6081,11 @@
         <v>7</v>
       </c>
       <c r="C18" s="28" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="D18" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>56</v>
+        <v>85</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.3">
@@ -5244,7 +6097,7 @@
       </c>
       <c r="D19" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.3">
@@ -5252,11 +6105,11 @@
         <v>9</v>
       </c>
       <c r="C20" s="28" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="D20" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>85</v>
+        <v>77</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.3">
